--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Itgav</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H2">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I2">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J2">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>8.357673723524668</v>
+        <v>4.296578577292444</v>
       </c>
       <c r="R2">
-        <v>8.357673723524668</v>
+        <v>38.669207195632</v>
       </c>
       <c r="S2">
-        <v>0.02502937418294894</v>
+        <v>0.008450684969101735</v>
       </c>
       <c r="T2">
-        <v>0.02502937418294894</v>
+        <v>0.009467072401794212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H3">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I3">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J3">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>72.89454414293701</v>
+        <v>28.29570373217111</v>
       </c>
       <c r="R3">
-        <v>72.89454414293701</v>
+        <v>254.66133358954</v>
       </c>
       <c r="S3">
-        <v>0.2183029490746396</v>
+        <v>0.05565313747160612</v>
       </c>
       <c r="T3">
-        <v>0.2183029490746396</v>
+        <v>0.06234669541665634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H4">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I4">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J4">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>59.49863930680812</v>
+        <v>23.76304234265244</v>
       </c>
       <c r="R4">
-        <v>59.49863930680812</v>
+        <v>213.867381083872</v>
       </c>
       <c r="S4">
-        <v>0.1781851931351025</v>
+        <v>0.04673811525442347</v>
       </c>
       <c r="T4">
-        <v>0.1781851931351025</v>
+        <v>0.0523594386318796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H5">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I5">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J5">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>65.71767964035884</v>
+        <v>24.46327031193955</v>
       </c>
       <c r="R5">
-        <v>65.71767964035884</v>
+        <v>220.169432807456</v>
       </c>
       <c r="S5">
-        <v>0.1968098359144867</v>
+        <v>0.04811535201817611</v>
       </c>
       <c r="T5">
-        <v>0.1968098359144867</v>
+        <v>0.05390231949946979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.08106413909736</v>
+        <v>0.4021426666666666</v>
       </c>
       <c r="H6">
-        <v>1.08106413909736</v>
+        <v>1.206428</v>
       </c>
       <c r="I6">
-        <v>0.6959005399948903</v>
+        <v>0.1795998161169229</v>
       </c>
       <c r="J6">
-        <v>0.6959005399948903</v>
+        <v>0.1934923663387552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>25.90282072770771</v>
+        <v>10.49527192780866</v>
       </c>
       <c r="R6">
-        <v>25.90282072770771</v>
+        <v>62.97163156685199</v>
       </c>
       <c r="S6">
-        <v>0.0775731876877125</v>
+        <v>0.02064252640361552</v>
       </c>
       <c r="T6">
-        <v>0.0775731876877125</v>
+        <v>0.01541684038895524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H7">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I7">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J7">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>3.652194415945428</v>
+        <v>13.00942030457333</v>
       </c>
       <c r="R7">
-        <v>3.652194415945428</v>
+        <v>117.08478274116</v>
       </c>
       <c r="S7">
-        <v>0.01093751008349051</v>
+        <v>0.02558745537801016</v>
       </c>
       <c r="T7">
-        <v>0.01093751008349051</v>
+        <v>0.02866492994674367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H8">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I8">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J8">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>31.85396509585772</v>
+        <v>85.67531025988333</v>
       </c>
       <c r="R8">
-        <v>31.85396509585772</v>
+        <v>771.07779233895</v>
       </c>
       <c r="S8">
-        <v>0.09539554162669327</v>
+        <v>0.1685096742935802</v>
       </c>
       <c r="T8">
-        <v>0.09539554162669327</v>
+        <v>0.1887768024453592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H9">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I9">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J9">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>26.0001293925882</v>
+        <v>71.95106524637333</v>
       </c>
       <c r="R9">
-        <v>26.0001293925882</v>
+        <v>647.55958721736</v>
       </c>
       <c r="S9">
-        <v>0.07786460549906848</v>
+        <v>0.1415162726923869</v>
       </c>
       <c r="T9">
-        <v>0.07786460549906848</v>
+        <v>0.158536829204898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4724109294883</v>
+        <v>1.21763</v>
       </c>
       <c r="H10">
-        <v>0.4724109294883</v>
+        <v>3.65289</v>
       </c>
       <c r="I10">
-        <v>0.3040994600051097</v>
+        <v>0.5438023423655177</v>
       </c>
       <c r="J10">
-        <v>0.3040994600051097</v>
+        <v>0.5858669809347723</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>28.71776890928789</v>
+        <v>74.07125455458666</v>
       </c>
       <c r="R10">
-        <v>28.71776890928789</v>
+        <v>666.64129099128</v>
       </c>
       <c r="S10">
-        <v>0.08600333149005618</v>
+        <v>0.1456863469959876</v>
       </c>
       <c r="T10">
-        <v>0.08600333149005618</v>
+        <v>0.1632084499666936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.21763</v>
+      </c>
+      <c r="H11">
+        <v>3.65289</v>
+      </c>
+      <c r="I11">
+        <v>0.5438023423655177</v>
+      </c>
+      <c r="J11">
+        <v>0.5858669809347723</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>26.0983795</v>
+      </c>
+      <c r="N11">
+        <v>52.196759</v>
+      </c>
+      <c r="O11">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P11">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q11">
+        <v>31.778169830585</v>
+      </c>
+      <c r="R11">
+        <v>190.66901898351</v>
+      </c>
+      <c r="S11">
+        <v>0.06250259300555285</v>
+      </c>
+      <c r="T11">
+        <v>0.04667996937107784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.411106</v>
+      </c>
+      <c r="I12">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J12">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N12">
+        <v>32.052644</v>
+      </c>
+      <c r="O12">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P12">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q12">
+        <v>1.464114918251556</v>
+      </c>
+      <c r="R12">
+        <v>13.177034264264</v>
+      </c>
+      <c r="S12">
+        <v>0.002879680590062183</v>
+      </c>
+      <c r="T12">
+        <v>0.003226027800094173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.411106</v>
+      </c>
+      <c r="I13">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J13">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N13">
+        <v>211.087055</v>
+      </c>
+      <c r="O13">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P13">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q13">
+        <v>9.642128314758891</v>
+      </c>
+      <c r="R13">
+        <v>86.77915483283</v>
+      </c>
+      <c r="S13">
+        <v>0.0189645289510871</v>
+      </c>
+      <c r="T13">
+        <v>0.02124544570082916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.411106</v>
+      </c>
+      <c r="I14">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J14">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N14">
+        <v>177.273224</v>
+      </c>
+      <c r="O14">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P14">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q14">
+        <v>8.097565113971555</v>
+      </c>
+      <c r="R14">
+        <v>72.87808602574401</v>
+      </c>
+      <c r="S14">
+        <v>0.01592661941681146</v>
+      </c>
+      <c r="T14">
+        <v>0.01784215832042816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.411106</v>
+      </c>
+      <c r="I15">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J15">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N15">
+        <v>182.496952</v>
+      </c>
+      <c r="O15">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P15">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q15">
+        <v>8.336176883212444</v>
+      </c>
+      <c r="R15">
+        <v>75.02559194891201</v>
+      </c>
+      <c r="S15">
+        <v>0.01639593072009628</v>
+      </c>
+      <c r="T15">
+        <v>0.0183679150020963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1370353333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.411106</v>
+      </c>
+      <c r="I16">
+        <v>0.06120096848263116</v>
+      </c>
+      <c r="J16">
+        <v>0.06593503529100808</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.0983795</v>
+      </c>
+      <c r="N16">
+        <v>52.196759</v>
+      </c>
+      <c r="O16">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P16">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q16">
+        <v>3.576400134242334</v>
+      </c>
+      <c r="R16">
+        <v>21.458400805454</v>
+      </c>
+      <c r="S16">
+        <v>0.007034208804574134</v>
+      </c>
+      <c r="T16">
+        <v>0.005253488467560296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.482296</v>
+      </c>
+      <c r="H17">
+        <v>0.964592</v>
+      </c>
+      <c r="I17">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J17">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N17">
+        <v>32.052644</v>
+      </c>
+      <c r="O17">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P17">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q17">
+        <v>5.152953996874667</v>
+      </c>
+      <c r="R17">
+        <v>30.917723981248</v>
+      </c>
+      <c r="S17">
+        <v>0.01013503886976568</v>
+      </c>
+      <c r="T17">
+        <v>0.007569338826843778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4724109294883</v>
-      </c>
-      <c r="H11">
-        <v>0.4724109294883</v>
-      </c>
-      <c r="I11">
-        <v>0.3040994600051097</v>
-      </c>
-      <c r="J11">
-        <v>0.3040994600051097</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N11">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O11">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P11">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q11">
-        <v>11.3191948320128</v>
-      </c>
-      <c r="R11">
-        <v>11.3191948320128</v>
-      </c>
-      <c r="S11">
-        <v>0.03389847130580127</v>
-      </c>
-      <c r="T11">
-        <v>0.03389847130580127</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.482296</v>
+      </c>
+      <c r="H18">
+        <v>0.964592</v>
+      </c>
+      <c r="I18">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J18">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N18">
+        <v>211.087055</v>
+      </c>
+      <c r="O18">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P18">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q18">
+        <v>33.93548075942667</v>
+      </c>
+      <c r="R18">
+        <v>203.61288455656</v>
+      </c>
+      <c r="S18">
+        <v>0.06674567961786136</v>
+      </c>
+      <c r="T18">
+        <v>0.04984891234731238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.482296</v>
+      </c>
+      <c r="H19">
+        <v>0.964592</v>
+      </c>
+      <c r="I19">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J19">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.273224</v>
+      </c>
+      <c r="O19">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P19">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q19">
+        <v>28.49938894743466</v>
+      </c>
+      <c r="R19">
+        <v>170.996333684608</v>
+      </c>
+      <c r="S19">
+        <v>0.05605375381228078</v>
+      </c>
+      <c r="T19">
+        <v>0.04186366333407548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.482296</v>
+      </c>
+      <c r="H20">
+        <v>0.964592</v>
+      </c>
+      <c r="I20">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J20">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N20">
+        <v>182.496952</v>
+      </c>
+      <c r="O20">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P20">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q20">
+        <v>29.33918332059733</v>
+      </c>
+      <c r="R20">
+        <v>176.035099923584</v>
+      </c>
+      <c r="S20">
+        <v>0.0577054954384968</v>
+      </c>
+      <c r="T20">
+        <v>0.0430972641306672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.482296</v>
+      </c>
+      <c r="H21">
+        <v>0.964592</v>
+      </c>
+      <c r="I21">
+        <v>0.2153968730349283</v>
+      </c>
+      <c r="J21">
+        <v>0.1547056174354645</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>12.587144039332</v>
+      </c>
+      <c r="R21">
+        <v>50.348576157328</v>
+      </c>
+      <c r="S21">
+        <v>0.02475690529652367</v>
+      </c>
+      <c r="T21">
+        <v>0.01232643879656566</v>
       </c>
     </row>
   </sheetData>
